--- a/testing.xlsx
+++ b/testing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UserData\Projects\dpcpp-mcml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE55C21D-658A-4A38-AF5E-A27DCFE7749C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7B0710-E735-4D4B-BA7E-16203BFA359C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="2340" windowWidth="33465" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
   <si>
     <t>GPU Intel UHD Graphics 630</t>
   </si>
@@ -80,58 +80,10 @@
     <t>Число фотонов</t>
   </si>
   <si>
-    <t>5942 мс</t>
-  </si>
-  <si>
-    <t>59426 мс</t>
-  </si>
-  <si>
-    <t>594260 мс</t>
-  </si>
-  <si>
-    <t>775 мс</t>
-  </si>
-  <si>
     <t>524 мс</t>
   </si>
   <si>
-    <t>52 423 мс</t>
-  </si>
-  <si>
-    <t>5 242 мс</t>
-  </si>
-  <si>
-    <t>77 588 мс</t>
-  </si>
-  <si>
-    <t>7 758 мс</t>
-  </si>
-  <si>
-    <t>5 9426 мс</t>
-  </si>
-  <si>
-    <t>5 942 мс</t>
-  </si>
-  <si>
-    <t>594 260 мс</t>
-  </si>
-  <si>
     <t>27 809 мс</t>
-  </si>
-  <si>
-    <t>278 094 мс</t>
-  </si>
-  <si>
-    <t>2 780 944 мс</t>
-  </si>
-  <si>
-    <t>13 067 мс</t>
-  </si>
-  <si>
-    <t>130 674 мс</t>
-  </si>
-  <si>
-    <t>1 306 743 мс</t>
   </si>
   <si>
     <t>CPU Intel i9 9900K
@@ -223,12 +175,139 @@
   <si>
     <t>4376424 мс</t>
   </si>
+  <si>
+    <t>5 332 мс</t>
+  </si>
+  <si>
+    <t>52 215 мс</t>
+  </si>
+  <si>
+    <t>541 181 мс</t>
+  </si>
+  <si>
+    <t>279 154 мс</t>
+  </si>
+  <si>
+    <t>2 785 944 мс</t>
+  </si>
+  <si>
+    <t>28 087 531 мс</t>
+  </si>
+  <si>
+    <t>130 654 мс</t>
+  </si>
+  <si>
+    <t>12 997 мс</t>
+  </si>
+  <si>
+    <t>1 311 143 мс</t>
+  </si>
+  <si>
+    <t>13 215 160 мс</t>
+  </si>
+  <si>
+    <t>394 мс</t>
+  </si>
+  <si>
+    <t>611 мс</t>
+  </si>
+  <si>
+    <t>916 мс</t>
+  </si>
+  <si>
+    <t>8739 мс</t>
+  </si>
+  <si>
+    <t>6263 мс</t>
+  </si>
+  <si>
+    <t>1044 мс</t>
+  </si>
+  <si>
+    <t>101055 мс</t>
+  </si>
+  <si>
+    <t>62556 мс</t>
+  </si>
+  <si>
+    <t>6166 мс</t>
+  </si>
+  <si>
+    <t>1689416 мс</t>
+  </si>
+  <si>
+    <t>621138 мс</t>
+  </si>
+  <si>
+    <t>60830 мс</t>
+  </si>
+  <si>
+    <t>CPU Intel i9 9900K (16 потоков)</t>
+  </si>
+  <si>
+    <t>NON OPTIMIZED</t>
+  </si>
+  <si>
+    <t>1 242 мс</t>
+  </si>
+  <si>
+    <t>10 453 мс</t>
+  </si>
+  <si>
+    <t>116 512 мс</t>
+  </si>
+  <si>
+    <t>2 012 297 мс</t>
+  </si>
+  <si>
+    <t>5 809 мс</t>
+  </si>
+  <si>
+    <t>8 087 531 мс</t>
+  </si>
+  <si>
+    <t>40 154 мс</t>
+  </si>
+  <si>
+    <t>485 944 мс</t>
+  </si>
+  <si>
+    <t>2 581 мс</t>
+  </si>
+  <si>
+    <t>17 654 мс</t>
+  </si>
+  <si>
+    <t>209 143 мс</t>
+  </si>
+  <si>
+    <t>3 547 160 мс</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Количество
+потоков</t>
+  </si>
+  <si>
+    <t>Ускорение</t>
+  </si>
+  <si>
+    <t>1 415 620 мс</t>
+  </si>
+  <si>
+    <t>127 003 мс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 090 мс </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +323,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -447,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -473,9 +559,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,30 +566,66 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,146 +666,6 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$N$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CPU Intel i9 9900K
-(1 thread)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$M$6:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$N$6:$N$8</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>5942</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59426</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>594260</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-30E0-41D9-8BC3-FB46362C5D90}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$O$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CPU Intel i9 9900K 
-(8 threads)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$M$6:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$O$6:$O$8</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>775</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7758</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>77588</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-30E0-41D9-8BC3-FB46362C5D90}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -715,10 +694,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$M$6:$M$8</c:f>
+              <c:f>Лист1!$M$6:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
                 </c:pt>
@@ -727,16 +706,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$P$6:$P$8</c:f>
+              <c:f>Лист1!$P$6:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>524</c:v>
                 </c:pt>
@@ -745,6 +727,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>52423</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>523181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -765,8 +750,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GPU Intel UHD Graphics 630 
-(16384 threads)</c:v>
+                  <c:v>GPU Intel UHD Graphics 630</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -785,10 +769,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$M$6:$M$8</c:f>
+              <c:f>Лист1!$M$6:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>100000</c:v>
                 </c:pt>
@@ -797,16 +781,19 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$Q$6:$Q$8</c:f>
+              <c:f>Лист1!$Q$6:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>27809</c:v>
                 </c:pt>
@@ -815,6 +802,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2780944</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>28087534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -835,8 +825,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GPU NVIDIA RTX 3060 
-(1048576 threads)</c:v>
+                  <c:v>GPU NVIDIA RTX 3060</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -853,12 +842,33 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$M$6:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$R$6:$R$8</c:f>
+              <c:f>Лист1!$R$6:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>13067</c:v>
                 </c:pt>
@@ -867,6 +877,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1306743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13015160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -889,6 +902,196 @@
         <c:smooth val="0"/>
         <c:axId val="618800863"/>
         <c:axId val="760397103"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$N$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CPU Intel i9 9900K
+(1 thread)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$M$6:$M$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$N$6:$N$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>5942</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>59426</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>594260</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-30E0-41D9-8BC3-FB46362C5D90}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$O$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CPU Intel i9 9900K 
+(8 threads)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$M$6:$M$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$O$6:$O$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>775</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>7758</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>77588</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-30E0-41D9-8BC3-FB46362C5D90}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="618800863"/>
@@ -1207,162 +1410,20 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16401494219844831"/>
+          <c:y val="2.9674139084071568E-2"/>
+          <c:w val="0.51089766036629558"/>
+          <c:h val="0.79590948358975111"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$N$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CPU Intel i9 9900K
-(1 thread)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$M$35:$M$38</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$N$35:$N$38</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>56790</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>567900</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5667642</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56563067</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B35-4B16-8132-FEE9481EEC7E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$O$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CPU Intel i9 9900K 
-(8 threads)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$M$35:$M$38</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$O$35:$O$38</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>30580</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>305806</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2963260</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28713989</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B35-4B16-8132-FEE9481EEC7E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -1392,42 +1453,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$M$35:$M$38</c:f>
+              <c:f>Лист1!$M$34:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$P$35:$P$38</c:f>
+              <c:f>Лист1!$P$34:$P$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4923</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>49231</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>475165</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5232400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1467,42 +1528,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$M$35:$M$38</c:f>
+              <c:f>Лист1!$M$34:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$Q$35:$Q$38</c:f>
+              <c:f>Лист1!$Q$34:$Q$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>4054</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>40546</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>400999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3965880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1542,42 +1603,42 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$M$35:$M$38</c:f>
+              <c:f>Лист1!$M$34:$M$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1000000</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>10000000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$R$35:$R$38</c:f>
+              <c:f>Лист1!$R$34:$R$37</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>919</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9192</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>46053</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>448356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1600,6 +1661,202 @@
         <c:smooth val="0"/>
         <c:axId val="786397423"/>
         <c:axId val="760375887"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$N$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CPU Intel i9 9900K
+(1 thread)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$M$34:$M$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$N$35:$N$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>56790</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>567900</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>5667642</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56563067</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7B35-4B16-8132-FEE9481EEC7E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$O$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>CPU Intel i9 9900K 
+(8 threads)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$M$34:$M$37</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>100000</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000000</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10000000</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100000000</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$O$35:$O$38</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>#,##0</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>30580</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>305806</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2963260</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>28713989</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7B35-4B16-8132-FEE9481EEC7E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="786397423"/>
@@ -1631,6 +1888,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.31673675317304556"/>
+              <c:y val="0.91740585598100222"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1742,6 +2007,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4294101844654744E-2"/>
+              <c:y val="0.37364905226213579"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1814,10 +2087,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.68420981062475439"/>
-          <c:y val="0.11584955142391133"/>
-          <c:w val="0.31302049268777277"/>
-          <c:h val="0.81201373993390402"/>
+          <c:x val="0.6947799296549162"/>
+          <c:y val="2.5099443920224996E-2"/>
+          <c:w val="0.25466024088759243"/>
+          <c:h val="0.84459063550665558"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1829,7 +2102,7 @@
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="t" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
@@ -1963,18 +2236,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$V$6:$V$8</c:f>
+              <c:f>Лист1!$X$6:$X$8</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5942</c:v>
+                  <c:v>15090</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59426</c:v>
+                  <c:v>127003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>594260</c:v>
+                  <c:v>1415620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,7 +2438,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2298,6 +2571,1117 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU Intel i9 9900K (16 потоков)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$62:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$62:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8739</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1689416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5559-43C6-8B69-1A7414B40B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU Intel UHD Graphics 630</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$62:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$62:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6263</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>621138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5559-43C6-8B69-1A7414B40B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU NVIDIA RTX 3060</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$62:$A$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$62:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1044</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60830</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5559-43C6-8B69-1A7414B40B0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1256653439"/>
+        <c:axId val="1255718079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1256653439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество фотонов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1255718079"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1255718079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время, мс</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1256653439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62730086316930844"/>
+          <c:y val="4.8030766987459901E-2"/>
+          <c:w val="0.34351509186351709"/>
+          <c:h val="0.38541994750656167"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU Intel i9 9900K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$101:$A$104</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$101:$B$104</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10453</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012297</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A512-4CF6-B653-56025F342D6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU Intel UHD Graphics 630</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$101:$A$104</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$101:$C$104</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5809</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>485944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8087531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A512-4CF6-B653-56025F342D6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU NVIDIA RTX 3060</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$101:$A$104</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$101:$D$104</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2581</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>209143</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3547160</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-A512-4CF6-B653-56025F342D6B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="618800863"/>
+        <c:axId val="760397103"/>
+        <c:extLst/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="618800863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество фотонов</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0E+0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="760397103"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="760397103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> мс</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618800863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68814787686422918"/>
+          <c:y val="3.9373780026291681E-2"/>
+          <c:w val="0.30010206437345838"/>
+          <c:h val="0.43333723821052494"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -2319,8 +3703,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Время выполнения</a:t>
+              <a:t>Скалируемость</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> реализации</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2362,9 +3751,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Intel i9 9900K</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2379,57 +3765,57 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$64:$B$79</c:f>
+              <c:f>Лист1!$B$125:$B$140</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>53227</c:v>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>106454</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26755</c:v>
+                  <c:v>53510</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17993</c:v>
+                  <c:v>35986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13694</c:v>
+                  <c:v>27388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11266</c:v>
+                  <c:v>22532</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9422</c:v>
+                  <c:v>18844</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8190</c:v>
+                  <c:v>16380</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7332</c:v>
+                  <c:v>14664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6620</c:v>
+                  <c:v>13240</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6058</c:v>
+                  <c:v>12116</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5616</c:v>
+                  <c:v>11232</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5266</c:v>
+                  <c:v>10532</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4976</c:v>
+                  <c:v>9952</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4694</c:v>
+                  <c:v>9388</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4483</c:v>
+                  <c:v>8966</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4376</c:v>
+                  <c:v>8752</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2437,7 +3823,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1011-4283-BE0C-6E4C1FCB30B7}"/>
+              <c16:uniqueId val="{00000000-7784-4681-B98A-F4F6D59E70C0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2450,16 +3836,79 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="956947583"/>
-        <c:axId val="951571103"/>
+        <c:axId val="1035611631"/>
+        <c:axId val="906279967"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="956947583"/>
+        <c:axId val="1035611631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество потоков</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42057524059492568"/>
+              <c:y val="0.89910859633461127"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2496,7 +3945,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="951571103"/>
+        <c:crossAx val="906279967"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2504,7 +3953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="951571103"/>
+        <c:axId val="906279967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,6 +3973,508 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время, мс</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1035611631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Скалируемость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> реализации</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$125:$C$140</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9894225378433938</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9582059689879396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8868847670512632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7245695011539146</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6492252175758866</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.499023199023199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.259547190398254</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0403323262839876</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7862330802244966</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.4777421652421658</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.107671857197113</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.696744372990354</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.33936940775458</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.873076065134955</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.163391224862888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D45-48FB-B93F-8AC11763151A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1035611631"/>
+        <c:axId val="906279967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1035611631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Количество потоков</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42057524059492568"/>
+              <c:y val="0.89910859633461127"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="906279967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="906279967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Ускорение</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2555,7 +4506,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="956947583"/>
+        <c:crossAx val="1035611631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2567,37 +4518,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2802,6 +4722,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4866,20 +6906,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>580063</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>162444</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>568755</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>166486</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>144077</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>736283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4906,16 +8494,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>867933</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>180003</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>531756</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>157591</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>431782</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>102147</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4942,16 +8530,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>1324694</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>88765</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304958</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>357706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>322170</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>61579</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>131670</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>140020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4978,23 +8566,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>37626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>690842</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>10085</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1280846</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B41F5C-33E9-4D4B-A5B6-E261A44D7CE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F181BC-5D78-4B67-9C16-1691ADE8F611}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5007,6 +8595,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257737</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>178734</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A9421E6-5A3C-4F9E-8295-B72ADFCBEB4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>146796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>739589</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA4A3FF-BBAF-4051-8498-034EA3C5E987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>728382</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>66115</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Диаграмма 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94442F59-18C4-4F42-A974-6901EB377847}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5278,16 +8978,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X79"/>
+  <dimension ref="A1:Y140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
@@ -5311,46 +9011,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
     </row>
     <row r="3" spans="1:24" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -5397,10 +9097,10 @@
         <v>7</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>2</v>
@@ -5556,6 +9256,12 @@
       </c>
       <c r="V6" s="13">
         <v>5942</v>
+      </c>
+      <c r="W6">
+        <v>1242</v>
+      </c>
+      <c r="X6">
+        <v>15090</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
@@ -5593,6 +9299,12 @@
       <c r="V7" s="13">
         <v>59426</v>
       </c>
+      <c r="W7">
+        <v>10453</v>
+      </c>
+      <c r="X7">
+        <v>127003</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -5629,6 +9341,12 @@
       <c r="V8" s="13">
         <v>594260</v>
       </c>
+      <c r="W8">
+        <v>116512</v>
+      </c>
+      <c r="X8">
+        <v>1415620</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -5659,6 +9377,30 @@
         <f>INT((A9/G9)*E9)</f>
         <v>11534174</v>
       </c>
+      <c r="M9" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="N9">
+        <v>5865346</v>
+      </c>
+      <c r="O9">
+        <v>757258</v>
+      </c>
+      <c r="P9">
+        <v>523181</v>
+      </c>
+      <c r="Q9">
+        <v>28087534</v>
+      </c>
+      <c r="R9" s="13">
+        <v>13015160</v>
+      </c>
+      <c r="W9">
+        <v>2012297</v>
+      </c>
+      <c r="X9">
+        <v>24449408</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -5725,16 +9467,17 @@
       <c r="N11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="23"/>
+      <c r="O11" s="24"/>
       <c r="P11" s="24"/>
+      <c r="Q11" s="25"/>
       <c r="U11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="23" t="s">
+      <c r="V11" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="W11" s="23"/>
-      <c r="X11" s="24"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="37"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -5766,27 +9509,30 @@
         <v>1961108</v>
       </c>
       <c r="M12" s="21"/>
-      <c r="N12" s="18">
+      <c r="N12" s="17">
         <v>100000</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="17">
         <v>1000000</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="17">
         <v>10000000</v>
       </c>
+      <c r="Q12" s="17">
+        <v>100000000</v>
+      </c>
       <c r="U12" s="21"/>
-      <c r="V12" s="18">
+      <c r="V12" s="17">
         <v>100000</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="17">
         <v>1000000</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X12" s="19">
         <v>10000000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>67108864</v>
       </c>
@@ -5815,29 +9561,32 @@
         <f t="shared" si="1"/>
         <v>1403648</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="U13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="N13" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="U13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="V13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="W13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>16</v>
+      <c r="V13" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="X13" s="15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="45" x14ac:dyDescent="0.25">
@@ -5869,20 +9618,23 @@
         <f t="shared" si="1"/>
         <v>1370067</v>
       </c>
-      <c r="M14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>21</v>
+      <c r="M14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>67108864</v>
       </c>
@@ -5911,20 +9663,27 @@
         <f t="shared" si="1"/>
         <v>1441444</v>
       </c>
-      <c r="M15" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>19</v>
+      <c r="M15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="R15">
+        <f>P9/1000/60</f>
+        <v>8.7196833333333341</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>67108864</v>
       </c>
@@ -5953,20 +9712,12 @@
         <f t="shared" si="1"/>
         <v>1329554</v>
       </c>
-      <c r="M16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>28</v>
+      <c r="R16">
+        <f>Q9/1000/60</f>
+        <v>468.12556666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>67108864</v>
       </c>
@@ -5995,17 +9746,9 @@
         <f t="shared" si="1"/>
         <v>1306260</v>
       </c>
-      <c r="M17" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>31</v>
+      <c r="R17">
+        <f>R9/1000/60</f>
+        <v>216.91933333333333</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -6142,46 +9885,46 @@
     <row r="26" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
     </row>
     <row r="31" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
@@ -6228,7 +9971,7 @@
         <v>7</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="R31" s="11" t="s">
         <v>3</v>
@@ -6277,7 +10020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>100936000</v>
       </c>
@@ -6321,7 +10064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1009360000</v>
       </c>
@@ -6365,7 +10108,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>11184800</v>
       </c>
@@ -6408,7 +10151,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>11184800</v>
       </c>
@@ -6451,7 +10194,7 @@
         <v>9192</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>100936000</v>
       </c>
@@ -6495,7 +10238,7 @@
         <v>46053</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1009360000</v>
       </c>
@@ -6539,7 +10282,7 @@
         <v>448356</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="3">
         <v>256</v>
@@ -6558,7 +10301,7 @@
       <c r="K39" s="13"/>
       <c r="M39" s="13"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="3">
         <v>512</v>
@@ -6577,7 +10320,7 @@
       <c r="K40" s="13"/>
       <c r="M40" s="13"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="3">
         <v>1024</v>
@@ -6594,18 +10337,17 @@
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
-      <c r="M41" s="20" t="s">
+      <c r="M41" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="22" t="s">
+      <c r="N41" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O41" s="23"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="24"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="31"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>11141120</v>
       </c>
@@ -6629,24 +10371,21 @@
         <v>65654</v>
       </c>
       <c r="K42" s="13"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="18">
+      <c r="M42" s="32"/>
+      <c r="N42" s="27">
         <v>100000</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="27">
         <v>1000000</v>
       </c>
-      <c r="P42" s="15">
+      <c r="P42" s="33">
         <v>10000000</v>
       </c>
-      <c r="Q42" s="15">
+      <c r="Q42" s="33">
         <v>100000000</v>
       </c>
-      <c r="R42" s="15">
-        <v>1000000000</v>
-      </c>
     </row>
-    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>11141120</v>
       </c>
@@ -6670,26 +10409,41 @@
         <v>47475</v>
       </c>
       <c r="K43" s="13"/>
-      <c r="M43" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="N43" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O43" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="P43" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q43" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="R43" s="19" t="s">
-        <v>39</v>
+      <c r="M43" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P43" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="T43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="U43" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="V43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="W43" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="X43" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y43" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>11141120</v>
       </c>
@@ -6718,26 +10472,41 @@
         <f t="shared" ref="K44:K51" si="4">INT(G44/$A$52*E44)</f>
         <v>10945</v>
       </c>
-      <c r="M44" s="17" t="s">
+      <c r="M44" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q44" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="N44" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="O44" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="P44" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q44" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="R44" s="19" t="s">
-        <v>44</v>
+      <c r="T44" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="U44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="V44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="W44" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="X44" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y44" s="17" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>11141120</v>
       </c>
@@ -6766,26 +10535,23 @@
         <f t="shared" si="4"/>
         <v>10243</v>
       </c>
-      <c r="M45" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="N45" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="O45" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="P45" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q45" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="R45" s="19" t="s">
-        <v>60</v>
+      <c r="M45" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="O45" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="P45" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q45" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>11141120</v>
       </c>
@@ -6814,26 +10580,9 @@
         <f t="shared" si="4"/>
         <v>11273</v>
       </c>
-      <c r="M46" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="N46" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="O46" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="P46" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q46" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R46" s="19" t="s">
-        <v>50</v>
-      </c>
+      <c r="U46" s="34"/>
     </row>
-    <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>11141120</v>
       </c>
@@ -6862,26 +10611,11 @@
         <f t="shared" si="4"/>
         <v>9974</v>
       </c>
-      <c r="M47" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="O47" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="P47" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q47" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="R47" s="19" t="s">
-        <v>55</v>
+      <c r="U47" s="33">
+        <v>1000000000</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="3">
         <v>131072</v>
@@ -6903,8 +10637,11 @@
         <f t="shared" si="4"/>
         <v>9631</v>
       </c>
+      <c r="U48" s="27" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="3">
         <v>262144</v>
@@ -6926,8 +10663,11 @@
         <f t="shared" si="4"/>
         <v>9490</v>
       </c>
+      <c r="U49" s="27" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="3">
         <f>2*B49</f>
@@ -6951,8 +10691,11 @@
         <f t="shared" si="4"/>
         <v>9486</v>
       </c>
+      <c r="U50" s="27" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="3">
         <f>2*B50</f>
@@ -6977,7 +10720,7 @@
         <v>9420</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>10485760</v>
       </c>
@@ -7004,7 +10747,7 @@
         <v>9192</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>100936000</v>
       </c>
@@ -7029,7 +10772,7 @@
         <v>46053</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1009360000</v>
       </c>
@@ -7054,185 +10797,622 @@
         <v>448356</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="O56">
         <v>4310</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K57">
         <f>C34/K54</f>
         <v>141.67001222243039</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="K58">
         <f>I38/K54</f>
         <v>11.670190652071122</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2728000</v>
+      </c>
+      <c r="D61">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>100000</v>
+      </c>
+      <c r="B62">
+        <v>916</v>
+      </c>
+      <c r="C62">
+        <v>611</v>
+      </c>
+      <c r="D62">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1000000</v>
+      </c>
+      <c r="B63">
+        <v>8739</v>
+      </c>
+      <c r="C63">
+        <v>6263</v>
+      </c>
+      <c r="D63">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>10000000</v>
+      </c>
+      <c r="B64">
+        <v>101055</v>
+      </c>
+      <c r="C64">
+        <v>62556</v>
+      </c>
+      <c r="D64">
+        <v>6166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>100000000</v>
+      </c>
+      <c r="B65">
+        <v>1689416</v>
+      </c>
+      <c r="C65">
+        <v>621138</v>
+      </c>
+      <c r="D65">
+        <v>60830</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1000000000</v>
+      </c>
+      <c r="B66">
+        <v>29655462</v>
+      </c>
+      <c r="C66">
+        <v>6198957</v>
+      </c>
+      <c r="D66">
+        <v>607338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="25"/>
+    </row>
+    <row r="70" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="21"/>
+      <c r="B70" s="17">
+        <v>100000</v>
+      </c>
+      <c r="C70" s="17">
+        <v>1000000</v>
+      </c>
+      <c r="D70" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="E70" s="19">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="13">
+        <v>100000</v>
+      </c>
+      <c r="B87" s="13">
+        <v>1080</v>
+      </c>
+      <c r="C87">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="13">
+        <v>1000000</v>
+      </c>
+      <c r="B88" s="13">
+        <v>9090</v>
+      </c>
+      <c r="C88">
+        <v>10453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>10000000</v>
+      </c>
+      <c r="B89" s="13">
+        <v>101315</v>
+      </c>
+      <c r="C89">
+        <v>116512</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="B90" s="13">
+        <v>1749824</v>
+      </c>
+      <c r="C90">
+        <v>2012297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="25"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="21"/>
+      <c r="B95" s="17">
+        <v>100000</v>
+      </c>
+      <c r="C95" s="17">
+        <v>1000000</v>
+      </c>
+      <c r="D95" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="E95" s="17">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E96" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B100" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="17">
+        <v>100000</v>
+      </c>
+      <c r="B101" s="17">
+        <v>1242</v>
+      </c>
+      <c r="C101" s="17">
+        <v>5809</v>
+      </c>
+      <c r="D101" s="17">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="17">
+        <v>1000000</v>
+      </c>
+      <c r="B102" s="17">
+        <v>10453</v>
+      </c>
+      <c r="C102" s="17">
+        <v>40154</v>
+      </c>
+      <c r="D102" s="17">
+        <v>17654</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="17">
+        <v>10000000</v>
+      </c>
+      <c r="B103" s="17">
+        <v>116512</v>
+      </c>
+      <c r="C103" s="17">
+        <v>485944</v>
+      </c>
+      <c r="D103" s="17">
+        <v>209143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="17">
+        <v>100000000</v>
+      </c>
+      <c r="B104" s="17">
+        <v>2012297</v>
+      </c>
+      <c r="C104" s="17">
+        <v>8087531</v>
+      </c>
+      <c r="D104" s="17">
+        <v>3547160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="18">
         <v>1</v>
       </c>
-      <c r="B64">
-        <v>53227</v>
+      <c r="B125" s="35">
+        <v>106454</v>
+      </c>
+      <c r="C125" s="18">
+        <f>$B$125/B125</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="18">
         <v>2</v>
       </c>
-      <c r="B65">
-        <v>26755</v>
+      <c r="B126" s="18">
+        <v>53510</v>
+      </c>
+      <c r="C126" s="18">
+        <f t="shared" ref="C126:C140" si="5">$B$125/B126</f>
+        <v>1.9894225378433938</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="18">
         <v>3</v>
       </c>
-      <c r="B66">
-        <v>17993</v>
+      <c r="B127" s="18">
+        <v>35986</v>
+      </c>
+      <c r="C127" s="18">
+        <f t="shared" si="5"/>
+        <v>2.9582059689879396</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="18">
         <v>4</v>
       </c>
-      <c r="B67">
-        <v>13694</v>
+      <c r="B128" s="18">
+        <v>27388</v>
+      </c>
+      <c r="C128" s="18">
+        <f t="shared" si="5"/>
+        <v>3.8868847670512632</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="18">
         <v>5</v>
       </c>
-      <c r="B68">
-        <v>11266</v>
+      <c r="B129" s="18">
+        <v>22532</v>
+      </c>
+      <c r="C129" s="18">
+        <f t="shared" si="5"/>
+        <v>4.7245695011539146</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="18">
         <v>6</v>
       </c>
-      <c r="B69">
-        <v>9422</v>
+      <c r="B130" s="18">
+        <v>18844</v>
+      </c>
+      <c r="C130" s="18">
+        <f t="shared" si="5"/>
+        <v>5.6492252175758866</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="18">
         <v>7</v>
       </c>
-      <c r="B70">
-        <v>8190</v>
+      <c r="B131" s="18">
+        <v>16380</v>
+      </c>
+      <c r="C131" s="18">
+        <f t="shared" si="5"/>
+        <v>6.499023199023199</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="18">
         <v>8</v>
       </c>
-      <c r="B71">
-        <v>7332</v>
+      <c r="B132" s="18">
+        <v>14664</v>
+      </c>
+      <c r="C132" s="18">
+        <f t="shared" si="5"/>
+        <v>7.259547190398254</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="18">
         <v>9</v>
       </c>
-      <c r="B72">
-        <v>6620</v>
+      <c r="B133" s="18">
+        <v>13240</v>
+      </c>
+      <c r="C133" s="18">
+        <f t="shared" si="5"/>
+        <v>8.0403323262839876</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="18">
         <v>10</v>
       </c>
-      <c r="B73">
-        <v>6058</v>
-      </c>
-      <c r="C73">
-        <v>14857</v>
+      <c r="B134" s="18">
+        <v>12116</v>
+      </c>
+      <c r="C134" s="18">
+        <f t="shared" si="5"/>
+        <v>8.7862330802244966</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="18">
         <v>11</v>
       </c>
-      <c r="B74">
-        <v>5616</v>
-      </c>
-      <c r="C74">
-        <v>14111</v>
+      <c r="B135" s="18">
+        <v>11232</v>
+      </c>
+      <c r="C135" s="18">
+        <f t="shared" si="5"/>
+        <v>9.4777421652421658</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="18">
         <v>12</v>
       </c>
-      <c r="B75">
-        <v>5266</v>
-      </c>
-      <c r="C75">
-        <v>13148</v>
+      <c r="B136" s="18">
+        <v>10532</v>
+      </c>
+      <c r="C136" s="18">
+        <f t="shared" si="5"/>
+        <v>10.107671857197113</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="18">
         <v>13</v>
       </c>
-      <c r="B76">
-        <v>4976</v>
-      </c>
-      <c r="C76">
-        <v>12588</v>
+      <c r="B137" s="18">
+        <v>9952</v>
+      </c>
+      <c r="C137" s="18">
+        <f t="shared" si="5"/>
+        <v>10.696744372990354</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="18">
         <v>14</v>
       </c>
-      <c r="B77">
-        <v>4694</v>
-      </c>
-      <c r="C77">
-        <v>12030</v>
+      <c r="B138" s="18">
+        <v>9388</v>
+      </c>
+      <c r="C138" s="18">
+        <f t="shared" si="5"/>
+        <v>11.33936940775458</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="18">
         <v>15</v>
       </c>
-      <c r="B78">
-        <v>4483</v>
-      </c>
-      <c r="C78">
-        <v>11532</v>
+      <c r="B139" s="18">
+        <v>8966</v>
+      </c>
+      <c r="C139" s="18">
+        <f t="shared" si="5"/>
+        <v>11.873076065134955</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="18">
         <v>16</v>
       </c>
-      <c r="B79">
-        <v>4376</v>
-      </c>
-      <c r="C79">
-        <v>11177</v>
+      <c r="B140" s="18">
+        <v>8752</v>
+      </c>
+      <c r="C140" s="18">
+        <f t="shared" si="5"/>
+        <v>12.163391224862888</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M4:M8">
     <sortCondition descending="1" ref="M4"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="A29:R30"/>
+  <mergeCells count="12">
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:E94"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="V11:X11"/>
     <mergeCell ref="U11:U12"/>
     <mergeCell ref="M11:M12"/>
-    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="A29:R30"/>
+    <mergeCell ref="N41:Q41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
